--- a/medicine/Enfance/Michèle_Marineau/Michèle_Marineau.xlsx
+++ b/medicine/Enfance/Michèle_Marineau/Michèle_Marineau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Marineau</t>
+          <t>Michèle_Marineau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michèle Marineau est une romancière québécoise née à Montréal en 1955.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Marineau</t>
+          <t>Michèle_Marineau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michèle Marineau étudie la médecine, l'histoire de l'art et la traduction, avant de découvrir qu'elle souhaite écrire ses propres romans.
-Elle mène depuis une double carrière de traductrice et d'auteure de livres pour la jeunesse[1],[2].
-Elle est en couple avec l'auteur François Gravel[3].
+Elle mène depuis une double carrière de traductrice et d'auteure de livres pour la jeunesse,.
+Elle est en couple avec l'auteur François Gravel.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Marineau</t>
+          <t>Michèle_Marineau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cassiopée - L'Été polonais, 1988
 Cassiopée - L'Été des baleines, 1989
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Marineau</t>
+          <t>Michèle_Marineau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Prix honorable</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1988 - Prix du Gouverneur général, Cassiopée ou l'été polonais
 1991 - Finaliste du Prix du Gouverneur général, Sur le rivage
